--- a/output4.xlsx
+++ b/output4.xlsx
@@ -725,7 +725,7 @@
         <v>34</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -753,7 +753,7 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -806,7 +806,7 @@
         <v>31</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>36</v>
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="D26">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -862,7 +862,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>45</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -921,7 +921,7 @@
         <v>33</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -946,7 +946,7 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <v>19</v>
